--- a/September'21/13.09.2021/Daily Sales Info Sep'21.xlsx
+++ b/September'21/13.09.2021/Daily Sales Info Sep'21.xlsx
@@ -20652,8 +20652,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20898,7 +20898,7 @@
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
-        <v>1</v>
+        <v>8053</v>
       </c>
       <c r="B7" s="20">
         <v>1908446134</v>
@@ -20907,7 +20907,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="21">
-        <v>8053</v>
+        <v>8458</v>
       </c>
       <c r="E7" s="22">
         <v>10</v>
@@ -20929,15 +20929,15 @@
       <c r="L7" s="23"/>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>8803</v>
+        <v>9208</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>9540</v>
+        <v>9945</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>242.08250000000001</v>
+        <v>253.22</v>
       </c>
       <c r="P7" s="26">
         <v>6150</v>
@@ -20947,25 +20947,25 @@
       </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>9209.9174999999996</v>
+        <v>9603.7800000000007</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>83.628500000000003</v>
+        <v>87.475999999999999</v>
       </c>
       <c r="T7" s="55">
         <f>S7-Q7</f>
-        <v>-4.3714999999999975</v>
+        <v>-0.52400000000000091</v>
       </c>
       <c r="U7" s="61"/>
       <c r="V7" s="64">
         <f>R7-U7</f>
-        <v>9209.9174999999996</v>
+        <v>9603.7800000000007</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
-        <v>2</v>
+        <v>6303</v>
       </c>
       <c r="B8" s="20">
         <v>1908446135</v>
@@ -20974,7 +20974,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="29">
-        <v>6303</v>
+        <v>6583</v>
       </c>
       <c r="E8" s="30">
         <v>200</v>
@@ -20992,39 +20992,39 @@
       <c r="L8" s="20"/>
       <c r="M8" s="20">
         <f t="shared" ref="M8:M27" si="0">D8+E8*20+F8*10+G8*9+H8*9</f>
-        <v>11203</v>
+        <v>11483</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N27" si="1">D8+E8*20+F8*10+G8*9+H8*9+I8*191+J8*191+K8*182+L8*100</f>
-        <v>12158</v>
+        <v>12438</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" ref="O8:O27" si="2">M8*2.75%</f>
-        <v>308.08249999999998</v>
+        <v>315.78250000000003</v>
       </c>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R27" si="3">M8-(M8*2.75%)+I8*191+J8*191+K8*182+L8*100-Q8</f>
-        <v>11849.9175</v>
+        <v>12122.217500000001</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" ref="S8:S27" si="4">M8*0.95%</f>
-        <v>106.4285</v>
+        <v>109.0885</v>
       </c>
       <c r="T8" s="55">
         <f t="shared" ref="T8:T27" si="5">S8-Q8</f>
-        <v>106.4285</v>
+        <v>109.0885</v>
       </c>
       <c r="U8" s="61"/>
       <c r="V8" s="64">
         <f t="shared" ref="V8:V27" si="6">R8-U8</f>
-        <v>11849.9175</v>
+        <v>12122.217500000001</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
-        <v>3</v>
+        <v>13082</v>
       </c>
       <c r="B9" s="20">
         <v>1908446136</v>
@@ -21033,7 +21033,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="29">
-        <v>13082</v>
+        <v>14110</v>
       </c>
       <c r="E9" s="30">
         <v>100</v>
@@ -21053,15 +21053,15 @@
       <c r="L9" s="20"/>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>21502</v>
+        <v>22530</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>21502</v>
+        <v>22530</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>591.30499999999995</v>
+        <v>619.57500000000005</v>
       </c>
       <c r="P9" s="26">
         <v>2000</v>
@@ -21071,27 +21071,27 @@
       </c>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>20784.695</v>
+        <v>21784.424999999999</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>204.26900000000001</v>
+        <v>214.035</v>
       </c>
       <c r="T9" s="55">
         <f t="shared" si="5"/>
-        <v>78.269000000000005</v>
+        <v>88.034999999999997</v>
       </c>
       <c r="U9" s="61">
         <v>75</v>
       </c>
       <c r="V9" s="64">
         <f t="shared" si="6"/>
-        <v>20709.695</v>
+        <v>21709.424999999999</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
-        <v>4</v>
+        <v>5106</v>
       </c>
       <c r="B10" s="20">
         <v>1908446137</v>
@@ -21154,7 +21154,7 @@
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
-        <v>5</v>
+        <v>6065</v>
       </c>
       <c r="B11" s="20">
         <v>1908446138</v>
@@ -21209,7 +21209,7 @@
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
-        <v>6</v>
+        <v>5961</v>
       </c>
       <c r="B12" s="20">
         <v>1908446139</v>
@@ -21218,7 +21218,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="29">
-        <v>5961</v>
+        <v>6362</v>
       </c>
       <c r="E12" s="30">
         <v>40</v>
@@ -21236,15 +21236,15 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>7711</v>
+        <v>8112</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>7711</v>
+        <v>8112</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>212.05250000000001</v>
+        <v>223.08</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26">
@@ -21252,25 +21252,25 @@
       </c>
       <c r="R12" s="24">
         <f t="shared" si="3"/>
-        <v>7469.9475000000002</v>
+        <v>7859.92</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
-        <v>73.254499999999993</v>
+        <v>77.063999999999993</v>
       </c>
       <c r="T12" s="55">
         <f t="shared" si="5"/>
-        <v>44.254499999999993</v>
+        <v>48.063999999999993</v>
       </c>
       <c r="U12" s="61"/>
       <c r="V12" s="64">
         <f t="shared" si="6"/>
-        <v>7469.9475000000002</v>
+        <v>7859.92</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
-        <v>7</v>
+        <v>4630</v>
       </c>
       <c r="B13" s="20">
         <v>1908446140</v>
@@ -21279,7 +21279,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="29">
-        <v>4630</v>
+        <v>6250</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -21291,15 +21291,15 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>4630</v>
+        <v>6250</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>4630</v>
+        <v>6250</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>127.325</v>
+        <v>171.875</v>
       </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="26">
@@ -21307,25 +21307,25 @@
       </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>4500.6750000000002</v>
+        <v>6076.125</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>43.984999999999999</v>
+        <v>59.375</v>
       </c>
       <c r="T13" s="55">
         <f t="shared" si="5"/>
-        <v>41.984999999999999</v>
+        <v>57.375</v>
       </c>
       <c r="U13" s="61"/>
       <c r="V13" s="64">
         <f t="shared" si="6"/>
-        <v>4500.6750000000002</v>
+        <v>6076.125</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
-        <v>8</v>
+        <v>20795</v>
       </c>
       <c r="B14" s="20">
         <v>1908446141</v>
@@ -21334,7 +21334,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="29">
-        <v>20795</v>
+        <v>22625</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -21350,15 +21350,15 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>22955</v>
+        <v>24785</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>22955</v>
+        <v>24785</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>631.26250000000005</v>
+        <v>681.58749999999998</v>
       </c>
       <c r="P14" s="26">
         <v>2000</v>
@@ -21366,27 +21366,27 @@
       <c r="Q14" s="26"/>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>22323.737499999999</v>
+        <v>24103.412499999999</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>218.07249999999999</v>
+        <v>235.45749999999998</v>
       </c>
       <c r="T14" s="55">
         <f t="shared" si="5"/>
-        <v>218.07249999999999</v>
+        <v>235.45749999999998</v>
       </c>
       <c r="U14" s="61">
         <v>124</v>
       </c>
       <c r="V14" s="64">
         <f t="shared" si="6"/>
-        <v>22199.737499999999</v>
+        <v>23979.412499999999</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
-        <v>9</v>
+        <v>16649</v>
       </c>
       <c r="B15" s="20">
         <v>1908446142</v>
@@ -21395,7 +21395,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="29">
-        <v>16649</v>
+        <v>17677</v>
       </c>
       <c r="E15" s="30">
         <v>10</v>
@@ -21413,15 +21413,15 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>16849</v>
+        <v>17877</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>18705</v>
+        <v>19733</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>463.34750000000003</v>
+        <v>491.61750000000001</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26">
@@ -21429,25 +21429,25 @@
       </c>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>18109.6525</v>
+        <v>19109.3825</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>160.06549999999999</v>
+        <v>169.83150000000001</v>
       </c>
       <c r="T15" s="55">
         <f t="shared" si="5"/>
-        <v>28.065499999999986</v>
+        <v>37.831500000000005</v>
       </c>
       <c r="U15" s="61"/>
       <c r="V15" s="64">
         <f t="shared" si="6"/>
-        <v>18109.6525</v>
+        <v>19109.3825</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
-        <v>10</v>
+        <v>10610</v>
       </c>
       <c r="B16" s="20">
         <v>1908446143</v>
@@ -21506,7 +21506,7 @@
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
-        <v>11</v>
+        <v>7038</v>
       </c>
       <c r="B17" s="20">
         <v>1908446144</v>
@@ -21515,7 +21515,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="29">
-        <v>7038</v>
+        <v>8901</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30">
@@ -21537,15 +21537,15 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20">
         <f t="shared" si="0"/>
-        <v>8888</v>
+        <v>10751</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>10753</v>
+        <v>12616</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="2"/>
-        <v>244.42</v>
+        <v>295.65249999999997</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26">
@@ -21553,25 +21553,25 @@
       </c>
       <c r="R17" s="24">
         <f t="shared" si="3"/>
-        <v>10438.58</v>
+        <v>12250.3475</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="4"/>
-        <v>84.435999999999993</v>
+        <v>102.1345</v>
       </c>
       <c r="T17" s="55">
         <f t="shared" si="5"/>
-        <v>14.435999999999993</v>
+        <v>32.134500000000003</v>
       </c>
       <c r="U17" s="61"/>
       <c r="V17" s="64">
         <f t="shared" si="6"/>
-        <v>10438.58</v>
+        <v>12250.3475</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
-        <v>12</v>
+        <v>7860</v>
       </c>
       <c r="B18" s="20">
         <v>1908446145</v>
@@ -21580,7 +21580,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="29">
-        <v>7860</v>
+        <v>8648</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -21592,15 +21592,15 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>7860</v>
+        <v>8648</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>7860</v>
+        <v>8648</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>216.15</v>
+        <v>237.82</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
@@ -21608,25 +21608,25 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>7490.85</v>
+        <v>8257.18</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>74.67</v>
+        <v>82.155999999999992</v>
       </c>
       <c r="T18" s="55">
         <f t="shared" si="5"/>
-        <v>-78.33</v>
+        <v>-70.844000000000008</v>
       </c>
       <c r="U18" s="61"/>
       <c r="V18" s="64">
         <f t="shared" si="6"/>
-        <v>7490.85</v>
+        <v>8257.18</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
-        <v>13</v>
+        <v>14806</v>
       </c>
       <c r="B19" s="20">
         <v>1908446146</v>
@@ -21687,7 +21687,7 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
-        <v>14</v>
+        <v>6391</v>
       </c>
       <c r="B20" s="20">
         <v>1908446147</v>
@@ -21748,7 +21748,7 @@
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
-        <v>15</v>
+        <v>5864</v>
       </c>
       <c r="B21" s="20">
         <v>1908446148</v>
@@ -21757,7 +21757,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="29">
-        <v>5864</v>
+        <v>7406</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30">
@@ -21773,15 +21773,15 @@
       <c r="L21" s="20"/>
       <c r="M21" s="20">
         <f t="shared" si="0"/>
-        <v>9864</v>
+        <v>11406</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>9864</v>
+        <v>11406</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="2"/>
-        <v>271.26</v>
+        <v>313.66500000000002</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26">
@@ -21789,27 +21789,27 @@
       </c>
       <c r="R21" s="24">
         <f t="shared" si="3"/>
-        <v>9562.74</v>
+        <v>11062.334999999999</v>
       </c>
       <c r="S21" s="25">
         <f t="shared" si="4"/>
-        <v>93.707999999999998</v>
+        <v>108.357</v>
       </c>
       <c r="T21" s="55">
         <f t="shared" si="5"/>
-        <v>63.707999999999998</v>
+        <v>78.356999999999999</v>
       </c>
       <c r="U21" s="61">
         <v>36</v>
       </c>
       <c r="V21" s="64">
         <f t="shared" si="6"/>
-        <v>9526.74</v>
+        <v>11026.334999999999</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
-        <v>16</v>
+        <v>12240</v>
       </c>
       <c r="B22" s="20">
         <v>1908446149</v>
@@ -21818,7 +21818,7 @@
         <v>33</v>
       </c>
       <c r="D22" s="29">
-        <v>12240</v>
+        <v>15000</v>
       </c>
       <c r="E22" s="30">
         <v>50</v>
@@ -21834,15 +21834,15 @@
       <c r="L22" s="20"/>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>13240</v>
+        <v>16000</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>14195</v>
+        <v>16955</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>364.1</v>
+        <v>440</v>
       </c>
       <c r="P22" s="26"/>
       <c r="Q22" s="26">
@@ -21850,25 +21850,25 @@
       </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>13730.9</v>
+        <v>16415</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>125.78</v>
+        <v>152</v>
       </c>
       <c r="T22" s="55">
         <f t="shared" si="5"/>
-        <v>25.78</v>
+        <v>52</v>
       </c>
       <c r="U22" s="61"/>
       <c r="V22" s="64">
         <f t="shared" si="6"/>
-        <v>13730.9</v>
+        <v>16415</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
-        <v>17</v>
+        <v>8001</v>
       </c>
       <c r="B23" s="20">
         <v>1908446150</v>
@@ -21877,7 +21877,7 @@
         <v>34</v>
       </c>
       <c r="D23" s="35">
-        <v>8001</v>
+        <v>8615</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -21891,15 +21891,15 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20">
         <f t="shared" si="0"/>
-        <v>8001</v>
+        <v>8615</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>10731</v>
+        <v>11345</v>
       </c>
       <c r="O23" s="25">
         <f t="shared" si="2"/>
-        <v>220.0275</v>
+        <v>236.91249999999999</v>
       </c>
       <c r="P23" s="26">
         <v>27500</v>
@@ -21909,25 +21909,25 @@
       </c>
       <c r="R23" s="24">
         <f t="shared" si="3"/>
-        <v>10430.9725</v>
+        <v>11028.0875</v>
       </c>
       <c r="S23" s="25">
         <f t="shared" si="4"/>
-        <v>76.009500000000003</v>
+        <v>81.842500000000001</v>
       </c>
       <c r="T23" s="55">
         <f t="shared" si="5"/>
-        <v>-3.9904999999999973</v>
+        <v>1.8425000000000011</v>
       </c>
       <c r="U23" s="61"/>
       <c r="V23" s="64">
         <f t="shared" si="6"/>
-        <v>10430.9725</v>
+        <v>11028.0875</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
-        <v>18</v>
+        <v>10590</v>
       </c>
       <c r="B24" s="20">
         <v>1908446151</v>
@@ -21936,7 +21936,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="29">
-        <v>10590</v>
+        <v>12789</v>
       </c>
       <c r="E24" s="30">
         <v>40</v>
@@ -21956,15 +21956,15 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20">
         <f t="shared" si="0"/>
-        <v>12590</v>
+        <v>14789</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="1"/>
-        <v>13163</v>
+        <v>15362</v>
       </c>
       <c r="O24" s="25">
         <f t="shared" si="2"/>
-        <v>346.22500000000002</v>
+        <v>406.69749999999999</v>
       </c>
       <c r="P24" s="26"/>
       <c r="Q24" s="26">
@@ -21972,25 +21972,25 @@
       </c>
       <c r="R24" s="24">
         <f t="shared" si="3"/>
-        <v>12719.775</v>
+        <v>14858.3025</v>
       </c>
       <c r="S24" s="25">
         <f t="shared" si="4"/>
-        <v>119.605</v>
+        <v>140.49549999999999</v>
       </c>
       <c r="T24" s="55">
         <f t="shared" si="5"/>
-        <v>22.605000000000004</v>
+        <v>43.495499999999993</v>
       </c>
       <c r="U24" s="61"/>
       <c r="V24" s="64">
         <f t="shared" si="6"/>
-        <v>12719.775</v>
+        <v>14858.3025</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
-        <v>19</v>
+        <v>7308</v>
       </c>
       <c r="B25" s="20">
         <v>1908446152</v>
@@ -21999,7 +21999,7 @@
         <v>36</v>
       </c>
       <c r="D25" s="29">
-        <v>7308</v>
+        <v>8838</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30">
@@ -22013,15 +22013,15 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>7708</v>
+        <v>9238</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>7708</v>
+        <v>9238</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>211.97</v>
+        <v>254.04499999999999</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26">
@@ -22029,25 +22029,25 @@
       </c>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>7407.03</v>
+        <v>8894.9549999999999</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>73.225999999999999</v>
+        <v>87.760999999999996</v>
       </c>
       <c r="T25" s="55">
         <f t="shared" si="5"/>
-        <v>-15.774000000000001</v>
+        <v>-1.2390000000000043</v>
       </c>
       <c r="U25" s="61"/>
       <c r="V25" s="64">
         <f t="shared" si="6"/>
-        <v>7407.03</v>
+        <v>8894.9549999999999</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
-        <v>70</v>
+        <v>10580</v>
       </c>
       <c r="B26" s="20">
         <v>1908446153</v>
@@ -22102,7 +22102,7 @@
     </row>
     <row r="27" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
-        <v>21</v>
+        <v>12339</v>
       </c>
       <c r="B27" s="20">
         <v>1908446154</v>
@@ -22169,7 +22169,7 @@
       <c r="C28" s="67"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
-        <v>200271</v>
+        <v>218159</v>
       </c>
       <c r="E28" s="45">
         <f>SUM(E7:E27)</f>
@@ -22205,15 +22205,15 @@
       </c>
       <c r="M28" s="57">
         <f t="shared" si="7"/>
-        <v>230601</v>
+        <v>248489</v>
       </c>
       <c r="N28" s="57">
         <f t="shared" si="7"/>
-        <v>252880</v>
+        <v>270768</v>
       </c>
       <c r="O28" s="58">
         <f t="shared" si="7"/>
-        <v>6341.5275000000011</v>
+        <v>6833.4475000000002</v>
       </c>
       <c r="P28" s="57">
         <f t="shared" si="7"/>
@@ -22225,15 +22225,15 @@
       </c>
       <c r="R28" s="57">
         <f t="shared" si="7"/>
-        <v>244907.47249999997</v>
+        <v>262303.55249999999</v>
       </c>
       <c r="S28" s="57">
         <f t="shared" si="7"/>
-        <v>2190.7094999999995</v>
+        <v>2360.6454999999992</v>
       </c>
       <c r="T28" s="59">
         <f t="shared" si="7"/>
-        <v>559.70949999999993</v>
+        <v>729.64549999999986</v>
       </c>
       <c r="U28" s="59">
         <f t="shared" si="7"/>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="V28" s="59">
         <f t="shared" si="7"/>
-        <v>244672.47249999997</v>
+        <v>262068.55249999996</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22252,7 +22252,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -22653,7 +22653,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
@@ -23831,7 +23831,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -24203,7 +24203,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
@@ -25381,7 +25381,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -25753,7 +25753,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
@@ -26931,7 +26931,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -27303,7 +27303,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
@@ -28481,7 +28481,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -28853,7 +28853,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
@@ -30031,7 +30031,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -30403,7 +30403,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
@@ -31581,7 +31581,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -33633,7 +33633,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
@@ -34811,7 +34811,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -35183,7 +35183,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
@@ -36361,7 +36361,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -36733,7 +36733,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
@@ -37911,7 +37911,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -38283,7 +38283,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
@@ -39461,7 +39461,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -39833,7 +39833,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
@@ -41011,7 +41011,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -41383,7 +41383,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
@@ -42561,7 +42561,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -42933,7 +42933,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
@@ -44111,7 +44111,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -44483,7 +44483,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
@@ -45661,7 +45661,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -46033,7 +46033,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
@@ -47211,7 +47211,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -47583,7 +47583,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
@@ -48761,7 +48761,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -50683,7 +50683,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
@@ -51861,7 +51861,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -52233,7 +52233,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
@@ -53411,7 +53411,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -53949,7 +53949,7 @@
       </c>
       <c r="D7" s="21">
         <f>'1'!D7+'2'!D7+'3'!D7+'4'!D7+'5'!D7+'6'!D7+'7'!D7+'8'!D7+'9'!D7+'10'!D7+'11'!D7+'12'!D7+'13'!D7+'14'!D7+'15'!D7+'16'!D7+'17'!D7+'18'!D7+'19'!D7+'20'!D7+'21'!D7+'22'!D7+'23'!D7+'24'!D7+'25'!D7+'26'!D7+'27'!D7+'28'!D7+'29'!D7+'30'!D7+'31'!D7</f>
-        <v>123903</v>
+        <v>124308</v>
       </c>
       <c r="E7" s="21">
         <f>'1'!E7+'2'!E7+'3'!E7+'4'!E7+'5'!E7+'6'!E7+'7'!E7+'8'!E7+'9'!E7+'10'!E7+'11'!E7+'12'!E7+'13'!E7+'14'!E7+'15'!E7+'16'!E7+'17'!E7+'18'!E7+'19'!E7+'20'!E7+'21'!E7+'22'!E7+'23'!E7+'24'!E7+'25'!E7+'26'!E7+'27'!E7+'28'!E7+'29'!E7+'30'!E7+'31'!E7</f>
@@ -53985,15 +53985,15 @@
       </c>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>128733</v>
+        <v>129138</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>138422</v>
+        <v>138827</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>3540.1574999999998</v>
+        <v>3551.2950000000001</v>
       </c>
       <c r="P7" s="26"/>
       <c r="Q7" s="26">
@@ -54002,15 +54002,15 @@
       </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>133930.8425</v>
+        <v>134324.70500000002</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>1222.9635000000001</v>
+        <v>1226.8109999999999</v>
       </c>
       <c r="T7" s="27">
         <f>S7-Q7</f>
-        <v>271.96350000000007</v>
+        <v>275.81099999999992</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54025,7 +54025,7 @@
       </c>
       <c r="D8" s="21">
         <f>'1'!D8+'2'!D8+'3'!D8+'4'!D8+'5'!D8+'6'!D8+'7'!D8+'8'!D8+'9'!D8+'10'!D8+'11'!D8+'12'!D8+'13'!D8+'14'!D8+'15'!D8+'16'!D8+'17'!D8+'18'!D8+'19'!D8+'20'!D8+'21'!D8+'22'!D8+'23'!D8+'24'!D8+'25'!D8+'26'!D8+'27'!D8+'28'!D8+'29'!D8+'30'!D8+'31'!D8</f>
-        <v>56422</v>
+        <v>56702</v>
       </c>
       <c r="E8" s="21">
         <f>'1'!E8+'2'!E8+'3'!E8+'4'!E8+'5'!E8+'6'!E8+'7'!E8+'8'!E8+'9'!E8+'10'!E8+'11'!E8+'12'!E8+'13'!E8+'14'!E8+'15'!E8+'16'!E8+'17'!E8+'18'!E8+'19'!E8+'20'!E8+'21'!E8+'22'!E8+'23'!E8+'24'!E8+'25'!E8+'26'!E8+'27'!E8+'28'!E8+'29'!E8+'30'!E8+'31'!E8</f>
@@ -54061,15 +54061,15 @@
       </c>
       <c r="M8" s="20">
         <f t="shared" ref="M8:M27" si="0">D8+E8*20+F8*10+G8*9+H8*9</f>
-        <v>66372</v>
+        <v>66652</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N27" si="1">D8+E8*20+F8*10+G8*9+H8*9+I8*191+J8*191+K8*182+L8*100</f>
-        <v>69237</v>
+        <v>69517</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" ref="O8:O27" si="2">M8*2.75%</f>
-        <v>1825.23</v>
+        <v>1832.93</v>
       </c>
       <c r="P8" s="26"/>
       <c r="Q8" s="26">
@@ -54078,15 +54078,15 @@
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R27" si="3">M8-(M8*2.75%)+I8*191+J8*191+K8*182+L8*100-Q8</f>
-        <v>66257.76999999999</v>
+        <v>66530.070000000007</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" ref="S8:S27" si="4">M8*0.95%</f>
-        <v>630.53399999999999</v>
+        <v>633.19399999999996</v>
       </c>
       <c r="T8" s="27">
         <f t="shared" ref="T8:T27" si="5">S8-Q8</f>
-        <v>-523.46600000000001</v>
+        <v>-520.80600000000004</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54101,7 +54101,7 @@
       </c>
       <c r="D9" s="21">
         <f>'1'!D9+'2'!D9+'3'!D9+'4'!D9+'5'!D9+'6'!D9+'7'!D9+'8'!D9+'9'!D9+'10'!D9+'11'!D9+'12'!D9+'13'!D9+'14'!D9+'15'!D9+'16'!D9+'17'!D9+'18'!D9+'19'!D9+'20'!D9+'21'!D9+'22'!D9+'23'!D9+'24'!D9+'25'!D9+'26'!D9+'27'!D9+'28'!D9+'29'!D9+'30'!D9+'31'!D9</f>
-        <v>188385</v>
+        <v>189413</v>
       </c>
       <c r="E9" s="21">
         <f>'1'!E9+'2'!E9+'3'!E9+'4'!E9+'5'!E9+'6'!E9+'7'!E9+'8'!E9+'9'!E9+'10'!E9+'11'!E9+'12'!E9+'13'!E9+'14'!E9+'15'!E9+'16'!E9+'17'!E9+'18'!E9+'19'!E9+'20'!E9+'21'!E9+'22'!E9+'23'!E9+'24'!E9+'25'!E9+'26'!E9+'27'!E9+'28'!E9+'29'!E9+'30'!E9+'31'!E9</f>
@@ -54137,15 +54137,15 @@
       </c>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>221175</v>
+        <v>222203</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>227433</v>
+        <v>228461</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>6082.3125</v>
+        <v>6110.5825000000004</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26">
@@ -54154,15 +54154,15 @@
       </c>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>220024.6875</v>
+        <v>221024.41750000001</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>2101.1624999999999</v>
+        <v>2110.9285</v>
       </c>
       <c r="T9" s="27">
         <f t="shared" si="5"/>
-        <v>775.16249999999991</v>
+        <v>784.92849999999999</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54329,7 +54329,7 @@
       </c>
       <c r="D12" s="21">
         <f>'1'!D12+'2'!D12+'3'!D12+'4'!D12+'5'!D12+'6'!D12+'7'!D12+'8'!D12+'9'!D12+'10'!D12+'11'!D12+'12'!D12+'13'!D12+'14'!D12+'15'!D12+'16'!D12+'17'!D12+'18'!D12+'19'!D12+'20'!D12+'21'!D12+'22'!D12+'23'!D12+'24'!D12+'25'!D12+'26'!D12+'27'!D12+'28'!D12+'29'!D12+'30'!D12+'31'!D12</f>
-        <v>63469</v>
+        <v>63870</v>
       </c>
       <c r="E12" s="21">
         <f>'1'!E12+'2'!E12+'3'!E12+'4'!E12+'5'!E12+'6'!E12+'7'!E12+'8'!E12+'9'!E12+'10'!E12+'11'!E12+'12'!E12+'13'!E12+'14'!E12+'15'!E12+'16'!E12+'17'!E12+'18'!E12+'19'!E12+'20'!E12+'21'!E12+'22'!E12+'23'!E12+'24'!E12+'25'!E12+'26'!E12+'27'!E12+'28'!E12+'29'!E12+'30'!E12+'31'!E12</f>
@@ -54365,15 +54365,15 @@
       </c>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>67069</v>
+        <v>67470</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>77068</v>
+        <v>77469</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>1844.3975</v>
+        <v>1855.425</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26">
@@ -54382,15 +54382,15 @@
       </c>
       <c r="R12" s="24">
         <f t="shared" si="3"/>
-        <v>74434.602500000008</v>
+        <v>74824.574999999997</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
-        <v>637.15549999999996</v>
+        <v>640.96500000000003</v>
       </c>
       <c r="T12" s="27">
         <f t="shared" si="5"/>
-        <v>-151.84450000000004</v>
+        <v>-148.03499999999997</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54405,7 +54405,7 @@
       </c>
       <c r="D13" s="21">
         <f>'1'!D13+'2'!D13+'3'!D13+'4'!D13+'5'!D13+'6'!D13+'7'!D13+'8'!D13+'9'!D13+'10'!D13+'11'!D13+'12'!D13+'13'!D13+'14'!D13+'15'!D13+'16'!D13+'17'!D13+'18'!D13+'19'!D13+'20'!D13+'21'!D13+'22'!D13+'23'!D13+'24'!D13+'25'!D13+'26'!D13+'27'!D13+'28'!D13+'29'!D13+'30'!D13+'31'!D13</f>
-        <v>77003</v>
+        <v>78623</v>
       </c>
       <c r="E13" s="21">
         <f>'1'!E13+'2'!E13+'3'!E13+'4'!E13+'5'!E13+'6'!E13+'7'!E13+'8'!E13+'9'!E13+'10'!E13+'11'!E13+'12'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13+'20'!E13+'21'!E13+'22'!E13+'23'!E13+'24'!E13+'25'!E13+'26'!E13+'27'!E13+'28'!E13+'29'!E13+'30'!E13+'31'!E13</f>
@@ -54441,15 +54441,15 @@
       </c>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>77003</v>
+        <v>78623</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>77003</v>
+        <v>78623</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>2117.5825</v>
+        <v>2162.1325000000002</v>
       </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="26">
@@ -54458,15 +54458,15 @@
       </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>74866.417499999996</v>
+        <v>76441.867499999993</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>731.52850000000001</v>
+        <v>746.91849999999999</v>
       </c>
       <c r="T13" s="27">
         <f t="shared" si="5"/>
-        <v>712.52850000000001</v>
+        <v>727.91849999999999</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54481,7 +54481,7 @@
       </c>
       <c r="D14" s="21">
         <f>'1'!D14+'2'!D14+'3'!D14+'4'!D14+'5'!D14+'6'!D14+'7'!D14+'8'!D14+'9'!D14+'10'!D14+'11'!D14+'12'!D14+'13'!D14+'14'!D14+'15'!D14+'16'!D14+'17'!D14+'18'!D14+'19'!D14+'20'!D14+'21'!D14+'22'!D14+'23'!D14+'24'!D14+'25'!D14+'26'!D14+'27'!D14+'28'!D14+'29'!D14+'30'!D14+'31'!D14</f>
-        <v>102051</v>
+        <v>103881</v>
       </c>
       <c r="E14" s="21">
         <f>'1'!E14+'2'!E14+'3'!E14+'4'!E14+'5'!E14+'6'!E14+'7'!E14+'8'!E14+'9'!E14+'10'!E14+'11'!E14+'12'!E14+'13'!E14+'14'!E14+'15'!E14+'16'!E14+'17'!E14+'18'!E14+'19'!E14+'20'!E14+'21'!E14+'22'!E14+'23'!E14+'24'!E14+'25'!E14+'26'!E14+'27'!E14+'28'!E14+'29'!E14+'30'!E14+'31'!E14</f>
@@ -54517,15 +54517,15 @@
       </c>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>109891</v>
+        <v>111721</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>124845</v>
+        <v>126675</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>3022.0025000000001</v>
+        <v>3072.3274999999999</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26">
@@ -54534,15 +54534,15 @@
       </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>120716.9975</v>
+        <v>122496.6725</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>1043.9645</v>
+        <v>1061.3495</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>-62.035499999999956</v>
+        <v>-44.650499999999965</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54557,7 +54557,7 @@
       </c>
       <c r="D15" s="21">
         <f>'1'!D15+'2'!D15+'3'!D15+'4'!D15+'5'!D15+'6'!D15+'7'!D15+'8'!D15+'9'!D15+'10'!D15+'11'!D15+'12'!D15+'13'!D15+'14'!D15+'15'!D15+'16'!D15+'17'!D15+'18'!D15+'19'!D15+'20'!D15+'21'!D15+'22'!D15+'23'!D15+'24'!D15+'25'!D15+'26'!D15+'27'!D15+'28'!D15+'29'!D15+'30'!D15+'31'!D15</f>
-        <v>212195</v>
+        <v>213223</v>
       </c>
       <c r="E15" s="21">
         <f>'1'!E15+'2'!E15+'3'!E15+'4'!E15+'5'!E15+'6'!E15+'7'!E15+'8'!E15+'9'!E15+'10'!E15+'11'!E15+'12'!E15+'13'!E15+'14'!E15+'15'!E15+'16'!E15+'17'!E15+'18'!E15+'19'!E15+'20'!E15+'21'!E15+'22'!E15+'23'!E15+'24'!E15+'25'!E15+'26'!E15+'27'!E15+'28'!E15+'29'!E15+'30'!E15+'31'!E15</f>
@@ -54593,15 +54593,15 @@
       </c>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>219345</v>
+        <v>220373</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>231944</v>
+        <v>232972</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>6031.9875000000002</v>
+        <v>6060.2574999999997</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26">
@@ -54610,15 +54610,15 @@
       </c>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>224353.01250000001</v>
+        <v>225352.74249999999</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>2083.7775000000001</v>
+        <v>2093.5434999999998</v>
       </c>
       <c r="T15" s="27">
         <f t="shared" si="5"/>
-        <v>524.77750000000015</v>
+        <v>534.54349999999977</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54709,7 +54709,7 @@
       </c>
       <c r="D17" s="21">
         <f>'1'!D17+'2'!D17+'3'!D17+'4'!D17+'5'!D17+'6'!D17+'7'!D17+'8'!D17+'9'!D17+'10'!D17+'11'!D17+'12'!D17+'13'!D17+'14'!D17+'15'!D17+'16'!D17+'17'!D17+'18'!D17+'19'!D17+'20'!D17+'21'!D17+'22'!D17+'23'!D17+'24'!D17+'25'!D17+'26'!D17+'27'!D17+'28'!D17+'29'!D17+'30'!D17+'31'!D17</f>
-        <v>85606</v>
+        <v>87469</v>
       </c>
       <c r="E17" s="21">
         <f>'1'!E17+'2'!E17+'3'!E17+'4'!E17+'5'!E17+'6'!E17+'7'!E17+'8'!E17+'9'!E17+'10'!E17+'11'!E17+'12'!E17+'13'!E17+'14'!E17+'15'!E17+'16'!E17+'17'!E17+'18'!E17+'19'!E17+'20'!E17+'21'!E17+'22'!E17+'23'!E17+'24'!E17+'25'!E17+'26'!E17+'27'!E17+'28'!E17+'29'!E17+'30'!E17+'31'!E17</f>
@@ -54745,15 +54745,15 @@
       </c>
       <c r="M17" s="20">
         <f t="shared" si="0"/>
-        <v>100256</v>
+        <v>102119</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>107988</v>
+        <v>109851</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="2"/>
-        <v>2757.04</v>
+        <v>2808.2725</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26">
@@ -54762,15 +54762,15 @@
       </c>
       <c r="R17" s="24">
         <f t="shared" si="3"/>
-        <v>104585.96</v>
+        <v>106397.72749999999</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="4"/>
-        <v>952.43200000000002</v>
+        <v>970.13049999999998</v>
       </c>
       <c r="T17" s="27">
         <f t="shared" si="5"/>
-        <v>307.43200000000002</v>
+        <v>325.13049999999998</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54785,7 +54785,7 @@
       </c>
       <c r="D18" s="21">
         <f>'1'!D18+'2'!D18+'3'!D18+'4'!D18+'5'!D18+'6'!D18+'7'!D18+'8'!D18+'9'!D18+'10'!D18+'11'!D18+'12'!D18+'13'!D18+'14'!D18+'15'!D18+'16'!D18+'17'!D18+'18'!D18+'19'!D18+'20'!D18+'21'!D18+'22'!D18+'23'!D18+'24'!D18+'25'!D18+'26'!D18+'27'!D18+'28'!D18+'29'!D18+'30'!D18+'31'!D18</f>
-        <v>96857</v>
+        <v>97645</v>
       </c>
       <c r="E18" s="21">
         <f>'1'!E18+'2'!E18+'3'!E18+'4'!E18+'5'!E18+'6'!E18+'7'!E18+'8'!E18+'9'!E18+'10'!E18+'11'!E18+'12'!E18+'13'!E18+'14'!E18+'15'!E18+'16'!E18+'17'!E18+'18'!E18+'19'!E18+'20'!E18+'21'!E18+'22'!E18+'23'!E18+'24'!E18+'25'!E18+'26'!E18+'27'!E18+'28'!E18+'29'!E18+'30'!E18+'31'!E18</f>
@@ -54821,15 +54821,15 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>100357</v>
+        <v>101145</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>112273</v>
+        <v>113061</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>2759.8175000000001</v>
+        <v>2781.4875000000002</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
@@ -54838,15 +54838,15 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>107904.1825</v>
+        <v>108670.5125</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>953.39149999999995</v>
+        <v>960.87749999999994</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>-655.60850000000005</v>
+        <v>-648.12250000000006</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -55013,7 +55013,7 @@
       </c>
       <c r="D21" s="21">
         <f>'1'!D21+'2'!D21+'3'!D21+'4'!D21+'5'!D21+'6'!D21+'7'!D21+'8'!D21+'9'!D21+'10'!D21+'11'!D21+'12'!D21+'13'!D21+'14'!D21+'15'!D21+'16'!D21+'17'!D21+'18'!D21+'19'!D21+'20'!D21+'21'!D21+'22'!D21+'23'!D21+'24'!D21+'25'!D21+'26'!D21+'27'!D21+'28'!D21+'29'!D21+'30'!D21+'31'!D21</f>
-        <v>75086</v>
+        <v>76628</v>
       </c>
       <c r="E21" s="21">
         <f>'1'!E21+'2'!E21+'3'!E21+'4'!E21+'5'!E21+'6'!E21+'7'!E21+'8'!E21+'9'!E21+'10'!E21+'11'!E21+'12'!E21+'13'!E21+'14'!E21+'15'!E21+'16'!E21+'17'!E21+'18'!E21+'19'!E21+'20'!E21+'21'!E21+'22'!E21+'23'!E21+'24'!E21+'25'!E21+'26'!E21+'27'!E21+'28'!E21+'29'!E21+'30'!E21+'31'!E21</f>
@@ -55049,15 +55049,15 @@
       </c>
       <c r="M21" s="20">
         <f t="shared" si="0"/>
-        <v>85526</v>
+        <v>87068</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>96523</v>
+        <v>98065</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="2"/>
-        <v>2351.9650000000001</v>
+        <v>2394.37</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26">
@@ -55066,15 +55066,15 @@
       </c>
       <c r="R21" s="24">
         <f t="shared" si="3"/>
-        <v>93921.035000000003</v>
+        <v>95420.63</v>
       </c>
       <c r="S21" s="25">
         <f t="shared" si="4"/>
-        <v>812.49699999999996</v>
+        <v>827.14599999999996</v>
       </c>
       <c r="T21" s="27">
         <f t="shared" si="5"/>
-        <v>562.49699999999996</v>
+        <v>577.14599999999996</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -55089,7 +55089,7 @@
       </c>
       <c r="D22" s="21">
         <f>'1'!D22+'2'!D22+'3'!D22+'4'!D22+'5'!D22+'6'!D22+'7'!D22+'8'!D22+'9'!D22+'10'!D22+'11'!D22+'12'!D22+'13'!D22+'14'!D22+'15'!D22+'16'!D22+'17'!D22+'18'!D22+'19'!D22+'20'!D22+'21'!D22+'22'!D22+'23'!D22+'24'!D22+'25'!D22+'26'!D22+'27'!D22+'28'!D22+'29'!D22+'30'!D22+'31'!D22</f>
-        <v>163606</v>
+        <v>166366</v>
       </c>
       <c r="E22" s="21">
         <f>'1'!E22+'2'!E22+'3'!E22+'4'!E22+'5'!E22+'6'!E22+'7'!E22+'8'!E22+'9'!E22+'10'!E22+'11'!E22+'12'!E22+'13'!E22+'14'!E22+'15'!E22+'16'!E22+'17'!E22+'18'!E22+'19'!E22+'20'!E22+'21'!E22+'22'!E22+'23'!E22+'24'!E22+'25'!E22+'26'!E22+'27'!E22+'28'!E22+'29'!E22+'30'!E22+'31'!E22</f>
@@ -55125,15 +55125,15 @@
       </c>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>185456</v>
+        <v>188216</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>211443</v>
+        <v>214203</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>5100.04</v>
+        <v>5175.9399999999996</v>
       </c>
       <c r="P22" s="26"/>
       <c r="Q22" s="26">
@@ -55142,15 +55142,15 @@
       </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>204989.96</v>
+        <v>207674.06</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>1761.8319999999999</v>
+        <v>1788.0519999999999</v>
       </c>
       <c r="T22" s="27">
         <f t="shared" si="5"/>
-        <v>408.83199999999988</v>
+        <v>435.05199999999991</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -55165,7 +55165,7 @@
       </c>
       <c r="D23" s="21">
         <f>'1'!D23+'2'!D23+'3'!D23+'4'!D23+'5'!D23+'6'!D23+'7'!D23+'8'!D23+'9'!D23+'10'!D23+'11'!D23+'12'!D23+'13'!D23+'14'!D23+'15'!D23+'16'!D23+'17'!D23+'18'!D23+'19'!D23+'20'!D23+'21'!D23+'22'!D23+'23'!D23+'24'!D23+'25'!D23+'26'!D23+'27'!D23+'28'!D23+'29'!D23+'30'!D23+'31'!D23</f>
-        <v>82961</v>
+        <v>83575</v>
       </c>
       <c r="E23" s="21">
         <f>'1'!E23+'2'!E23+'3'!E23+'4'!E23+'5'!E23+'6'!E23+'7'!E23+'8'!E23+'9'!E23+'10'!E23+'11'!E23+'12'!E23+'13'!E23+'14'!E23+'15'!E23+'16'!E23+'17'!E23+'18'!E23+'19'!E23+'20'!E23+'21'!E23+'22'!E23+'23'!E23+'24'!E23+'25'!E23+'26'!E23+'27'!E23+'28'!E23+'29'!E23+'30'!E23+'31'!E23</f>
@@ -55201,15 +55201,15 @@
       </c>
       <c r="M23" s="20">
         <f t="shared" si="0"/>
-        <v>82961</v>
+        <v>83575</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>91331</v>
+        <v>91945</v>
       </c>
       <c r="O23" s="25">
         <f t="shared" si="2"/>
-        <v>2281.4275000000002</v>
+        <v>2298.3125</v>
       </c>
       <c r="P23" s="26"/>
       <c r="Q23" s="26">
@@ -55218,15 +55218,15 @@
       </c>
       <c r="R23" s="24">
         <f t="shared" si="3"/>
-        <v>88269.572499999995</v>
+        <v>88866.6875</v>
       </c>
       <c r="S23" s="25">
         <f t="shared" si="4"/>
-        <v>788.12950000000001</v>
+        <v>793.96249999999998</v>
       </c>
       <c r="T23" s="27">
         <f t="shared" si="5"/>
-        <v>8.1295000000000073</v>
+        <v>13.962499999999977</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -55241,7 +55241,7 @@
       </c>
       <c r="D24" s="21">
         <f>'1'!D24+'2'!D24+'3'!D24+'4'!D24+'5'!D24+'6'!D24+'7'!D24+'8'!D24+'9'!D24+'10'!D24+'11'!D24+'12'!D24+'13'!D24+'14'!D24+'15'!D24+'16'!D24+'17'!D24+'18'!D24+'19'!D24+'20'!D24+'21'!D24+'22'!D24+'23'!D24+'24'!D24+'25'!D24+'26'!D24+'27'!D24+'28'!D24+'29'!D24+'30'!D24+'31'!D24</f>
-        <v>211522</v>
+        <v>213721</v>
       </c>
       <c r="E24" s="21">
         <f>'1'!E24+'2'!E24+'3'!E24+'4'!E24+'5'!E24+'6'!E24+'7'!E24+'8'!E24+'9'!E24+'10'!E24+'11'!E24+'12'!E24+'13'!E24+'14'!E24+'15'!E24+'16'!E24+'17'!E24+'18'!E24+'19'!E24+'20'!E24+'21'!E24+'22'!E24+'23'!E24+'24'!E24+'25'!E24+'26'!E24+'27'!E24+'28'!E24+'29'!E24+'30'!E24+'31'!E24</f>
@@ -55277,15 +55277,15 @@
       </c>
       <c r="M24" s="20">
         <f t="shared" si="0"/>
-        <v>244432</v>
+        <v>246631</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="1"/>
-        <v>253701</v>
+        <v>255900</v>
       </c>
       <c r="O24" s="25">
         <f t="shared" si="2"/>
-        <v>6721.88</v>
+        <v>6782.3525</v>
       </c>
       <c r="P24" s="26"/>
       <c r="Q24" s="26">
@@ -55294,15 +55294,15 @@
       </c>
       <c r="R24" s="24">
         <f t="shared" si="3"/>
-        <v>245563.12</v>
+        <v>247701.64749999999</v>
       </c>
       <c r="S24" s="25">
         <f t="shared" si="4"/>
-        <v>2322.1039999999998</v>
+        <v>2342.9944999999998</v>
       </c>
       <c r="T24" s="27">
         <f t="shared" si="5"/>
-        <v>906.10399999999981</v>
+        <v>926.99449999999979</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -55317,7 +55317,7 @@
       </c>
       <c r="D25" s="21">
         <f>'1'!D25+'2'!D25+'3'!D25+'4'!D25+'5'!D25+'6'!D25+'7'!D25+'8'!D25+'9'!D25+'10'!D25+'11'!D25+'12'!D25+'13'!D25+'14'!D25+'15'!D25+'16'!D25+'17'!D25+'18'!D25+'19'!D25+'20'!D25+'21'!D25+'22'!D25+'23'!D25+'24'!D25+'25'!D25+'26'!D25+'27'!D25+'28'!D25+'29'!D25+'30'!D25+'31'!D25</f>
-        <v>91485</v>
+        <v>93015</v>
       </c>
       <c r="E25" s="21">
         <f>'1'!E25+'2'!E25+'3'!E25+'4'!E25+'5'!E25+'6'!E25+'7'!E25+'8'!E25+'9'!E25+'10'!E25+'11'!E25+'12'!E25+'13'!E25+'14'!E25+'15'!E25+'16'!E25+'17'!E25+'18'!E25+'19'!E25+'20'!E25+'21'!E25+'22'!E25+'23'!E25+'24'!E25+'25'!E25+'26'!E25+'27'!E25+'28'!E25+'29'!E25+'30'!E25+'31'!E25</f>
@@ -55353,15 +55353,15 @@
       </c>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>101035</v>
+        <v>102565</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>114670</v>
+        <v>116200</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>2778.4625000000001</v>
+        <v>2820.5374999999999</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26">
@@ -55370,15 +55370,15 @@
       </c>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>110983.53750000001</v>
+        <v>112471.46249999999</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>959.83249999999998</v>
+        <v>974.36749999999995</v>
       </c>
       <c r="T25" s="27">
         <f t="shared" si="5"/>
-        <v>51.832499999999982</v>
+        <v>66.36749999999995</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -55541,7 +55541,7 @@
       <c r="C28" s="67"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
-        <v>2353590</v>
+        <v>2371478</v>
       </c>
       <c r="E28" s="45">
         <f>SUM(E7:E27)</f>
@@ -55577,15 +55577,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="6"/>
-        <v>2576720</v>
+        <v>2594608</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="6"/>
-        <v>2804393</v>
+        <v>2822281</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="6"/>
-        <v>70859.799999999988</v>
+        <v>71351.72</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="6"/>
@@ -55597,15 +55597,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="6"/>
-        <v>2712993.2</v>
+        <v>2730389.2800000003</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="6"/>
-        <v>24478.84</v>
+        <v>24648.776000000002</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="6"/>
-        <v>3938.8399999999983</v>
+        <v>4108.7759999999989</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -55616,7 +55616,7 @@
       <c r="C29" s="70"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>582915</v>
+        <v>565027</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
